--- a/data/trans_orig/P16A09-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A09-Clase-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos para el reuma en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2315,7 +2315,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
+          <t>Población según si ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4060,7 +4060,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos para el reuma en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5789,7 +5789,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (tasa de respuesta: 99,9%)</t>
+          <t>Población según si ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A09-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A09-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>11454</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5472</v>
+        <v>5656</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20201</v>
+        <v>21280</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02417640103340909</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0115494221034866</v>
+        <v>0.0119380043686404</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04263839473446826</v>
+        <v>0.04491666737089873</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -765,19 +765,19 @@
         <v>10794</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5427</v>
+        <v>5598</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19553</v>
+        <v>19453</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03519724618066953</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01769734645546076</v>
+        <v>0.0182537927008774</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06375774657638573</v>
+        <v>0.06343215962767287</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -786,19 +786,19 @@
         <v>22249</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13379</v>
+        <v>14156</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33358</v>
+        <v>34300</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02850704038522372</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01714207940502835</v>
+        <v>0.01813844463991214</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04274140122462447</v>
+        <v>0.04394916605424386</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>462322</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>453575</v>
+        <v>452496</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>468304</v>
+        <v>468120</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9758235989665909</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9573616052655317</v>
+        <v>0.9550833326291008</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9884505778965135</v>
+        <v>0.9880619956313594</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>288</v>
@@ -836,19 +836,19 @@
         <v>295886</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>287127</v>
+        <v>287227</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>301253</v>
+        <v>301082</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9648027538193304</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9362422534236142</v>
+        <v>0.9365678403723269</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9823026535445392</v>
+        <v>0.9817462072991225</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>733</v>
@@ -857,19 +857,19 @@
         <v>758208</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>747099</v>
+        <v>746157</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>767078</v>
+        <v>766301</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9714929596147763</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9572585987753756</v>
+        <v>0.9560508339457562</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9828579205949717</v>
+        <v>0.9818615553600879</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>4482</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1724</v>
+        <v>1406</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9195</v>
+        <v>9220</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01221424000914125</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004699747792848701</v>
+        <v>0.003830408967365903</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02506023993033511</v>
+        <v>0.02512805395924795</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -982,19 +982,19 @@
         <v>8541</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3225</v>
+        <v>3465</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17455</v>
+        <v>17740</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02296763566938701</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.008673778734417673</v>
+        <v>0.009316825227865925</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0469394966611247</v>
+        <v>0.04770459253560903</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -1003,19 +1003,19 @@
         <v>13023</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6532</v>
+        <v>6802</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22349</v>
+        <v>22645</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01762682178305728</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008841844079465731</v>
+        <v>0.009207166172090317</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03025001970386133</v>
+        <v>0.03065150214542194</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>362452</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>357739</v>
+        <v>357714</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>365210</v>
+        <v>365528</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9877857599908587</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9749397600696649</v>
+        <v>0.9748719460407521</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9953002522071512</v>
+        <v>0.9961695910326374</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>356</v>
@@ -1053,19 +1053,19 @@
         <v>363324</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>354410</v>
+        <v>354125</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>368640</v>
+        <v>368400</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.977032364330613</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9530605033388753</v>
+        <v>0.9522954074643911</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9913262212655823</v>
+        <v>0.9906831747721345</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>701</v>
@@ -1074,19 +1074,19 @@
         <v>725776</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>716450</v>
+        <v>716154</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>732267</v>
+        <v>731997</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9823731782169427</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9697499802961385</v>
+        <v>0.9693484978545779</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9911581559205342</v>
+        <v>0.9907928338279096</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>14863</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9012</v>
+        <v>8153</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24210</v>
+        <v>23563</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02740361441936388</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01661598466683511</v>
+        <v>0.01503127286679447</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04463650152932119</v>
+        <v>0.0434438916019415</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1199,19 +1199,19 @@
         <v>11397</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6011</v>
+        <v>5628</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20171</v>
+        <v>20759</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06792799616199127</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03582673901211004</v>
+        <v>0.03354300683298073</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1202214668846668</v>
+        <v>0.1237250487985764</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -1220,19 +1220,19 @@
         <v>26261</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17462</v>
+        <v>17576</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38810</v>
+        <v>38315</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03697772833695272</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02458840568005469</v>
+        <v>0.02474889354551687</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05464930822816334</v>
+        <v>0.05395235748202696</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>527526</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>518179</v>
+        <v>518826</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>533377</v>
+        <v>534236</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9725963855806361</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9553634984706788</v>
+        <v>0.9565561083980585</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9833840153331649</v>
+        <v>0.9849687271332055</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>154</v>
@@ -1270,19 +1270,19 @@
         <v>156385</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>147611</v>
+        <v>147023</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>161771</v>
+        <v>162154</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9320720038380087</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8797785331153331</v>
+        <v>0.8762749512014235</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9641732609878895</v>
+        <v>0.9664569931670192</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>671</v>
@@ -1291,19 +1291,19 @@
         <v>683910</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>671361</v>
+        <v>671856</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>692709</v>
+        <v>692595</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9630222716630473</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9453506917718366</v>
+        <v>0.946047642517973</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9754115943199453</v>
+        <v>0.9752511064544832</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>53627</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>40572</v>
+        <v>41569</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>68849</v>
+        <v>69233</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0433055091823575</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03276353191683896</v>
+        <v>0.03356834624121875</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05559831614639865</v>
+        <v>0.05590827890054698</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -1416,19 +1416,19 @@
         <v>28338</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19476</v>
+        <v>19149</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>39892</v>
+        <v>39819</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03967376989140579</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02726636036424948</v>
+        <v>0.02680840220572117</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05584853672801246</v>
+        <v>0.05574686327845576</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>85</v>
@@ -1437,19 +1437,19 @@
         <v>81965</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>66180</v>
+        <v>66857</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>100192</v>
+        <v>101001</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04197698727002236</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03389309440879926</v>
+        <v>0.03423940778973508</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05131176589199068</v>
+        <v>0.05172598808509827</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1184707</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1169485</v>
+        <v>1169101</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1197762</v>
+        <v>1196765</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9566944908176425</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9444016838536015</v>
+        <v>0.9440917210994535</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9672364680831612</v>
+        <v>0.9664316537587815</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>665</v>
@@ -1487,19 +1487,19 @@
         <v>685947</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>674393</v>
+        <v>674466</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>694809</v>
+        <v>695136</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9603262301085942</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9441514632719875</v>
+        <v>0.9442531367215442</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9727336396357507</v>
+        <v>0.9731915977942788</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1833</v>
@@ -1508,19 +1508,19 @@
         <v>1870655</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1852428</v>
+        <v>1851619</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1886440</v>
+        <v>1885763</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9580230127299776</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9486882341080094</v>
+        <v>0.9482740119149017</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9661069055912007</v>
+        <v>0.9657605922102651</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>9980</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5436</v>
+        <v>5454</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18039</v>
+        <v>17766</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02855331508330371</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01555338848492451</v>
+        <v>0.0156029018006466</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05160765205051684</v>
+        <v>0.05082602995727279</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>27</v>
@@ -1633,19 +1633,19 @@
         <v>29184</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19457</v>
+        <v>19794</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>41327</v>
+        <v>41537</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05131303978339304</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03420980729024958</v>
+        <v>0.03480215402583939</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07266249171969985</v>
+        <v>0.07303269874718905</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>38</v>
@@ -1654,19 +1654,19 @@
         <v>39165</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>28805</v>
+        <v>28277</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>53373</v>
+        <v>52121</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04264978814917939</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03136763022113562</v>
+        <v>0.03079321877177715</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05812229841631123</v>
+        <v>0.05675934142868451</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>339557</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>331498</v>
+        <v>331771</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>344101</v>
+        <v>344083</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9714466849166963</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.948392347949483</v>
+        <v>0.9491739700427273</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9844466115150754</v>
+        <v>0.9843970981993535</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>512</v>
@@ -1704,19 +1704,19 @@
         <v>539568</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>527425</v>
+        <v>527215</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>549295</v>
+        <v>548958</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9486869602166069</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9273375082803004</v>
+        <v>0.926967301252811</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9657901927097505</v>
+        <v>0.9651978459741606</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>840</v>
@@ -1725,19 +1725,19 @@
         <v>879124</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>864916</v>
+        <v>866168</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>889484</v>
+        <v>890012</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9573502118508206</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.941877701583688</v>
+        <v>0.9432406585713154</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9686323697788638</v>
+        <v>0.9692067812282228</v>
       </c>
     </row>
     <row r="18">
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4445</v>
+        <v>4112</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.002970608796377066</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01490499643558195</v>
+        <v>0.0137897778256771</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>81</v>
@@ -1850,19 +1850,19 @@
         <v>83277</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>66762</v>
+        <v>67321</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>102200</v>
+        <v>102367</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06668766903704025</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05346229585927825</v>
+        <v>0.05391034545131201</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08184103343438771</v>
+        <v>0.08197521404962987</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>82</v>
@@ -1871,19 +1871,19 @@
         <v>84163</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>67812</v>
+        <v>67451</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>103382</v>
+        <v>102458</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05440521977742817</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04383546713477025</v>
+        <v>0.0436022573091295</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06682929769915452</v>
+        <v>0.06623183549597952</v>
       </c>
     </row>
     <row r="20">
@@ -1900,7 +1900,7 @@
         <v>297315</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>293756</v>
+        <v>294089</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>298201</v>
@@ -1909,7 +1909,7 @@
         <v>0.9970293912036229</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.985095003564418</v>
+        <v>0.9862102221743221</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1921,19 +1921,19 @@
         <v>1165483</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1146560</v>
+        <v>1146393</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1181998</v>
+        <v>1181439</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9333123309629597</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9181589665656124</v>
+        <v>0.9180247859503703</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9465377041407218</v>
+        <v>0.9460896545486881</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1462</v>
@@ -1942,19 +1942,19 @@
         <v>1462797</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1443578</v>
+        <v>1444502</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1479148</v>
+        <v>1479509</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9455947802225718</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9331707023008456</v>
+        <v>0.9337681645040209</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.95616453286523</v>
+        <v>0.9563977426908706</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>95292</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>76407</v>
+        <v>78636</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>115358</v>
+        <v>115893</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02914880066807186</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02337184109502325</v>
+        <v>0.02405385132488341</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0352865975621546</v>
+        <v>0.0354501122521289</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>164</v>
@@ -2067,19 +2067,19 @@
         <v>171532</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>147210</v>
+        <v>149049</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>196941</v>
+        <v>201784</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05077726668225903</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04357749348346126</v>
+        <v>0.04412181970049275</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05829883529151107</v>
+        <v>0.05973265551358816</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>262</v>
@@ -2088,19 +2088,19 @@
         <v>266824</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>233210</v>
+        <v>235158</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>299622</v>
+        <v>297433</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0401402838549361</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03508343165838052</v>
+        <v>0.03537647096862553</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04507432990239361</v>
+        <v>0.04474490498878416</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3173880</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3153814</v>
+        <v>3153279</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3192765</v>
+        <v>3190536</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9708511993319281</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9647134024378454</v>
+        <v>0.9645498877478706</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9766281589049769</v>
+        <v>0.9759461486751164</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3132</v>
@@ -2138,19 +2138,19 @@
         <v>3206592</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3181183</v>
+        <v>3176340</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3230914</v>
+        <v>3229075</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.949222733317741</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9417011647084893</v>
+        <v>0.9402673444864124</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9564225065165388</v>
+        <v>0.9558781802995072</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6240</v>
@@ -2159,19 +2159,19 @@
         <v>6380472</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6347674</v>
+        <v>6349863</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6414086</v>
+        <v>6412138</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9598597161450639</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9549256700976066</v>
+        <v>0.9552550950112159</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9649165683416199</v>
+        <v>0.9646235290313744</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>11305</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5257</v>
+        <v>5166</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21580</v>
+        <v>21437</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02585682870358723</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01202299716483359</v>
+        <v>0.0118169468264041</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04935836498993303</v>
+        <v>0.04903144045689214</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -2526,19 +2526,19 @@
         <v>4416</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10697</v>
+        <v>11090</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0140422467995965</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003508810208898998</v>
+        <v>0.003503915318437565</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03401817933789652</v>
+        <v>0.03526787700006042</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -2547,19 +2547,19 @@
         <v>15721</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8637</v>
+        <v>8295</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>28027</v>
+        <v>26592</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02091427400795079</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0114909857901153</v>
+        <v>0.01103615119378205</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03728680875167924</v>
+        <v>0.03537709163402383</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>425906</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>415631</v>
+        <v>415774</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>431954</v>
+        <v>432045</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9741431712964128</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.950641635010067</v>
+        <v>0.9509685595431081</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9879770028351664</v>
+        <v>0.9881830531735959</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>279</v>
@@ -2597,19 +2597,19 @@
         <v>310038</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>303757</v>
+        <v>303364</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>313351</v>
+        <v>313352</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9859577532004035</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9659818206621029</v>
+        <v>0.9647321229999406</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.996491189791101</v>
+        <v>0.9964960846815624</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>674</v>
@@ -2618,19 +2618,19 @@
         <v>735944</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>723638</v>
+        <v>725073</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>743028</v>
+        <v>743370</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9790857259920492</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9627131912483202</v>
+        <v>0.964622908365976</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9885090142098846</v>
+        <v>0.9889638488062178</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>7296</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3087</v>
+        <v>3077</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13780</v>
+        <v>13789</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01749594399271113</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007403312481543792</v>
+        <v>0.007379299671299827</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03304398202573979</v>
+        <v>0.03306469306752086</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -2743,19 +2743,19 @@
         <v>8254</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4019</v>
+        <v>4028</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15596</v>
+        <v>15674</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02461631343269648</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01198541847904539</v>
+        <v>0.01201293827037136</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04651194075411774</v>
+        <v>0.04674449931869083</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -2764,19 +2764,19 @@
         <v>15550</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9263</v>
+        <v>8683</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24268</v>
+        <v>25436</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02066949782633867</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01231201585692244</v>
+        <v>0.01154118672471794</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03225726938376766</v>
+        <v>0.03380931234786737</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>409722</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>403238</v>
+        <v>403229</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>413931</v>
+        <v>413941</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9825040560072889</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9669560179742595</v>
+        <v>0.9669353069324792</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9925966875184562</v>
+        <v>0.9926207003287002</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>295</v>
@@ -2814,19 +2814,19 @@
         <v>327061</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>319719</v>
+        <v>319641</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>331296</v>
+        <v>331287</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9753836865673036</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9534880592458823</v>
+        <v>0.9532555006813093</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9880145815209547</v>
+        <v>0.9879870617296286</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>661</v>
@@ -2835,19 +2835,19 @@
         <v>736783</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>728065</v>
+        <v>726897</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>743070</v>
+        <v>743650</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9793305021736614</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9677427306162323</v>
+        <v>0.9661906876521327</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9876879841430776</v>
+        <v>0.9884588132752818</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>13809</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7155</v>
+        <v>7255</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24689</v>
+        <v>25748</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02204650723151558</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01142319174812092</v>
+        <v>0.01158333183659837</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03941866054350732</v>
+        <v>0.04110930940611447</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -2960,19 +2960,19 @@
         <v>10370</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4963</v>
+        <v>5120</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18950</v>
+        <v>19525</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04020515362036509</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01923940890218293</v>
+        <v>0.01984783380372916</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07346762955740369</v>
+        <v>0.07569692629436929</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -2981,19 +2981,19 @@
         <v>24179</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14570</v>
+        <v>14861</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36814</v>
+        <v>37315</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02734327164896884</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0164767972086636</v>
+        <v>0.01680569636220643</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04163148379416348</v>
+        <v>0.04219876653922433</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>612529</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>601649</v>
+        <v>600590</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>619183</v>
+        <v>619083</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9779534927684844</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9605813394564927</v>
+        <v>0.958890690593885</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9885768082518791</v>
+        <v>0.9884166681634016</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>233</v>
@@ -3031,19 +3031,19 @@
         <v>247568</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>238988</v>
+        <v>238413</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>252975</v>
+        <v>252818</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9597948463796349</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9265323704425963</v>
+        <v>0.9243030737056311</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.980760591097817</v>
+        <v>0.980152166196271</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>811</v>
@@ -3052,19 +3052,19 @@
         <v>860097</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>847462</v>
+        <v>846961</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>869706</v>
+        <v>869415</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9726567283510311</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9583685162058364</v>
+        <v>0.9578012334607755</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9835232027913363</v>
+        <v>0.9831943036377936</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>27020</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18409</v>
+        <v>18413</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39755</v>
+        <v>40287</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02334734201120198</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01590678604394734</v>
+        <v>0.01590995506653033</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03435070759252875</v>
+        <v>0.03481041013721432</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -3177,19 +3177,19 @@
         <v>22900</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14818</v>
+        <v>15308</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33346</v>
+        <v>35543</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02986963574111533</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0193286537223296</v>
+        <v>0.01996753416885976</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04349557871338553</v>
+        <v>0.04636097785504026</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>47</v>
@@ -3198,19 +3198,19 @@
         <v>49920</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>36704</v>
+        <v>36417</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>66766</v>
+        <v>66391</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02594632115394261</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01907733569336043</v>
+        <v>0.01892796058699767</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03470202304689517</v>
+        <v>0.03450714928272688</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1130295</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1117560</v>
+        <v>1117028</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1138906</v>
+        <v>1138902</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.976652657988798</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9656492924074714</v>
+        <v>0.9651895898627855</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9840932139560531</v>
+        <v>0.9840900449334696</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>689</v>
@@ -3248,19 +3248,19 @@
         <v>743757</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>733311</v>
+        <v>731114</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>751839</v>
+        <v>751349</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9701303642588847</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9565044212866145</v>
+        <v>0.9536390221449595</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9806713462776703</v>
+        <v>0.9800324658311402</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1745</v>
@@ -3269,19 +3269,19 @@
         <v>1874053</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1857207</v>
+        <v>1857582</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1887269</v>
+        <v>1887556</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9740536788460574</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9652979769531049</v>
+        <v>0.9654928507172733</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9809226643066397</v>
+        <v>0.9810720394130024</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>11899</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6328</v>
+        <v>6302</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20432</v>
+        <v>20311</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02330424616240735</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01239239260168987</v>
+        <v>0.01234319545749933</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04001678972013791</v>
+        <v>0.03977969186587384</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>50</v>
@@ -3394,19 +3394,19 @@
         <v>52499</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>39936</v>
+        <v>40308</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>68239</v>
+        <v>66522</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06932100586659155</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05273221871509442</v>
+        <v>0.05322369123048748</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09010498341177113</v>
+        <v>0.08783733938272677</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>61</v>
@@ -3415,19 +3415,19 @@
         <v>64398</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>48940</v>
+        <v>49985</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>81493</v>
+        <v>80770</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05078995257711975</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03859827911071552</v>
+        <v>0.03942275591281803</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06427262058824262</v>
+        <v>0.06370288128357064</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>498697</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>490164</v>
+        <v>490285</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>504268</v>
+        <v>504294</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9766957538375927</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9599832102798619</v>
+        <v>0.9602203081341264</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9876076073983101</v>
+        <v>0.9876568045425007</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>649</v>
@@ -3465,19 +3465,19 @@
         <v>704830</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>689090</v>
+        <v>690807</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>717393</v>
+        <v>717021</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9306789941334085</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9098950165882291</v>
+        <v>0.9121626606172734</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9472677812849056</v>
+        <v>0.9467763087695127</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1125</v>
@@ -3486,19 +3486,19 @@
         <v>1203527</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1186432</v>
+        <v>1187155</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1218985</v>
+        <v>1217940</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9492100474228803</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9357273794117574</v>
+        <v>0.9362971187164294</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9614017208892846</v>
+        <v>0.9605772440871821</v>
       </c>
     </row>
     <row r="18">
@@ -3603,19 +3603,19 @@
         <v>108080</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>87594</v>
+        <v>88055</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>129476</v>
+        <v>128876</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09778696602474378</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07925218678292642</v>
+        <v>0.07966891651821688</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.117145309616244</v>
+        <v>0.1166029982475214</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>98</v>
@@ -3624,19 +3624,19 @@
         <v>108080</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>88712</v>
+        <v>87833</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>131341</v>
+        <v>128349</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07882712494772283</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06470116488596066</v>
+        <v>0.06406004525334645</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09579252444866311</v>
+        <v>0.09361012906002764</v>
       </c>
     </row>
     <row r="20">
@@ -3666,19 +3666,19 @@
         <v>997176</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>975780</v>
+        <v>976380</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1017662</v>
+        <v>1017201</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9022130339752562</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8828546903837561</v>
+        <v>0.8833970017524786</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9207478132170737</v>
+        <v>0.9203310834817833</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1206</v>
@@ -3687,19 +3687,19 @@
         <v>1263018</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1239757</v>
+        <v>1242749</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1282386</v>
+        <v>1283265</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9211728750522772</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9042074755513367</v>
+        <v>0.9063898709399723</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9352988351140392</v>
+        <v>0.9359399547466536</v>
       </c>
     </row>
     <row r="21">
@@ -3791,19 +3791,19 @@
         <v>71329</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>54956</v>
+        <v>55324</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>91971</v>
+        <v>89920</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02089109511963077</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01609562944272797</v>
+        <v>0.01620343033713383</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02693674720393286</v>
+        <v>0.02633613457021131</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>191</v>
@@ -3812,19 +3812,19 @@
         <v>206519</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>179657</v>
+        <v>179006</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>235672</v>
+        <v>235969</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05838887967333652</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05079427401827985</v>
+        <v>0.05061040950353844</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06663134943677707</v>
+        <v>0.0667154479171677</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>254</v>
@@ -3833,19 +3833,19 @@
         <v>277847</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>247370</v>
+        <v>244342</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>315170</v>
+        <v>312356</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0399707460926712</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03558636033729533</v>
+        <v>0.03515063758553272</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04533998962175086</v>
+        <v>0.04493517230602088</v>
       </c>
     </row>
     <row r="23">
@@ -3862,19 +3862,19 @@
         <v>3342990</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3322348</v>
+        <v>3324399</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3359363</v>
+        <v>3358995</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9791089048803693</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9730632527960672</v>
+        <v>0.9736638654297888</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9839043705572721</v>
+        <v>0.9837965696628662</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3087</v>
@@ -3883,19 +3883,19 @@
         <v>3330431</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3301278</v>
+        <v>3300981</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3357293</v>
+        <v>3357944</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9416111203266635</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9333686505632228</v>
+        <v>0.9332845520828323</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9492057259817201</v>
+        <v>0.9493895904964615</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6222</v>
@@ -3904,19 +3904,19 @@
         <v>6673422</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6636099</v>
+        <v>6638913</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6703899</v>
+        <v>6706927</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9600292539073289</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9546600103782491</v>
+        <v>0.9550648276939786</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9644136396627047</v>
+        <v>0.9648493624144669</v>
       </c>
     </row>
     <row r="24">
@@ -4250,19 +4250,19 @@
         <v>2952</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8441</v>
+        <v>8394</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006879626958662345</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001727760438372371</v>
+        <v>0.001734034546760596</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01967079349008421</v>
+        <v>0.01956266543092518</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -4271,19 +4271,19 @@
         <v>4205</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1124</v>
+        <v>1092</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9894</v>
+        <v>10348</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0121163455544896</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003238160343187248</v>
+        <v>0.003146755837481432</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02850896284906633</v>
+        <v>0.02981767531673316</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -4292,19 +4292,19 @@
         <v>7157</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2855</v>
+        <v>2966</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14501</v>
+        <v>13521</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.009221231161507028</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00367855726404642</v>
+        <v>0.003820856438660886</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01868324453893233</v>
+        <v>0.01742062316680983</v>
       </c>
     </row>
     <row r="5">
@@ -4321,19 +4321,19 @@
         <v>426140</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>420651</v>
+        <v>420698</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>428351</v>
+        <v>428348</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9931203730413376</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9803292065099157</v>
+        <v>0.9804373345690749</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9982722395616276</v>
+        <v>0.9982659654532394</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>328</v>
@@ -4342,19 +4342,19 @@
         <v>342850</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>337161</v>
+        <v>336707</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>345931</v>
+        <v>345963</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9878836544455104</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9714910371509322</v>
+        <v>0.9701823246832667</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9967618396568123</v>
+        <v>0.9968532441625185</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>721</v>
@@ -4363,19 +4363,19 @@
         <v>768990</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>761646</v>
+        <v>762626</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>773292</v>
+        <v>773181</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9907787688384929</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9813167554610677</v>
+        <v>0.9825793768331902</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9963214427359536</v>
+        <v>0.9961791435613391</v>
       </c>
     </row>
     <row r="6">
@@ -4480,19 +4480,19 @@
         <v>4395</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1166</v>
+        <v>1150</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11156</v>
+        <v>10291</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01180520919633057</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003132351572868008</v>
+        <v>0.00308907669101034</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0299665309156486</v>
+        <v>0.02764278034397967</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -4501,19 +4501,19 @@
         <v>4395</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1150</v>
+        <v>1021</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11626</v>
+        <v>10842</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.00586359208463362</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001533947632789905</v>
+        <v>0.00136163523356512</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01551110080233013</v>
+        <v>0.01446525677431301</v>
       </c>
     </row>
     <row r="8">
@@ -4543,19 +4543,19 @@
         <v>367878</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>361117</v>
+        <v>361982</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>371107</v>
+        <v>371123</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9881947908036695</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9700334690843515</v>
+        <v>0.9723572196560203</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9968676484271319</v>
+        <v>0.9969109233089897</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>702</v>
@@ -4564,19 +4564,19 @@
         <v>745105</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>737874</v>
+        <v>738658</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>748350</v>
+        <v>748479</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9941364079153664</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9844888991976696</v>
+        <v>0.9855347432256873</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9984660523672101</v>
+        <v>0.9986383647664349</v>
       </c>
     </row>
     <row r="9">
@@ -4668,19 +4668,19 @@
         <v>4329</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1158</v>
+        <v>1151</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10603</v>
+        <v>10237</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008294001221221951</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002219517610625127</v>
+        <v>0.002205622416177965</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02031643171435904</v>
+        <v>0.01961393407743191</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -4689,19 +4689,19 @@
         <v>6231</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2083</v>
+        <v>2110</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14543</v>
+        <v>14842</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03750550296047339</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0125378333939997</v>
+        <v>0.01270374996696452</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08754424399769409</v>
+        <v>0.08934191538795956</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -4710,19 +4710,19 @@
         <v>10559</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5140</v>
+        <v>4884</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20833</v>
+        <v>19729</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01534696515268871</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007470044278478819</v>
+        <v>0.007098914257683474</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03027836917786284</v>
+        <v>0.02867382769111173</v>
       </c>
     </row>
     <row r="11">
@@ -4739,19 +4739,19 @@
         <v>517585</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>511311</v>
+        <v>511677</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>520756</v>
+        <v>520763</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9917059987787781</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9796835682856421</v>
+        <v>0.9803860659225688</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9977804823893749</v>
+        <v>0.9977943775838221</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>148</v>
@@ -4760,19 +4760,19 @@
         <v>159892</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>151580</v>
+        <v>151281</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>164040</v>
+        <v>164013</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9624944970395266</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9124557560023066</v>
+        <v>0.9106580846120406</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9874621666060003</v>
+        <v>0.9872962500330356</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>646</v>
@@ -4781,19 +4781,19 @@
         <v>677477</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>667203</v>
+        <v>668307</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>682896</v>
+        <v>683152</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9846530348473113</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9697216308221371</v>
+        <v>0.9713261723088883</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9925299557215213</v>
+        <v>0.9929010857423165</v>
       </c>
     </row>
     <row r="12">
@@ -4885,19 +4885,19 @@
         <v>23877</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15235</v>
+        <v>15538</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>36836</v>
+        <v>34568</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02076944662310335</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01325213352777986</v>
+        <v>0.01351585242001263</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03204103692606816</v>
+        <v>0.0300682698787773</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -4906,19 +4906,19 @@
         <v>15219</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8537</v>
+        <v>8760</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24438</v>
+        <v>25353</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01842761622361604</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01033665708226426</v>
+        <v>0.0106065931621833</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02959052577723078</v>
+        <v>0.03069864551980854</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>37</v>
@@ -4927,19 +4927,19 @@
         <v>39096</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>27534</v>
+        <v>28400</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>53111</v>
+        <v>52990</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01979043003961801</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01393771160384084</v>
+        <v>0.01437614098005911</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02688467392455889</v>
+        <v>0.02682329234498792</v>
       </c>
     </row>
     <row r="14">
@@ -4956,19 +4956,19 @@
         <v>1125761</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1112802</v>
+        <v>1115070</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1134403</v>
+        <v>1134100</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9792305533768967</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9679589630739319</v>
+        <v>0.9699317301212228</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9867478664722202</v>
+        <v>0.9864841475799875</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>784</v>
@@ -4977,19 +4977,19 @@
         <v>810657</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>801438</v>
+        <v>800523</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>817339</v>
+        <v>817116</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.981572383776384</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9704094742227691</v>
+        <v>0.9693013544801914</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9896633429177357</v>
+        <v>0.9893934068378167</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1864</v>
@@ -4998,19 +4998,19 @@
         <v>1936418</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1922403</v>
+        <v>1922524</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1947980</v>
+        <v>1947114</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.980209569960382</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9731153260754412</v>
+        <v>0.9731767076550122</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9860622883961593</v>
+        <v>0.9856238590199411</v>
       </c>
     </row>
     <row r="15">
@@ -5102,19 +5102,19 @@
         <v>14037</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8447</v>
+        <v>8040</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21720</v>
+        <v>22165</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02261480649486454</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01360843409588649</v>
+        <v>0.01295293339436632</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03499212136931078</v>
+        <v>0.03570888080899179</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>38</v>
@@ -5123,19 +5123,19 @@
         <v>42822</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>30310</v>
+        <v>31089</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>56182</v>
+        <v>59023</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05800585282759274</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04105713237367868</v>
+        <v>0.04211247135936044</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07610236534460346</v>
+        <v>0.07995048813142791</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>54</v>
@@ -5144,19 +5144,19 @@
         <v>56860</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>44453</v>
+        <v>43023</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>73367</v>
+        <v>71903</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04184085012865189</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03271149027366857</v>
+        <v>0.03165910311792928</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05398836867710241</v>
+        <v>0.05291053239264398</v>
       </c>
     </row>
     <row r="17">
@@ -5173,19 +5173,19 @@
         <v>606669</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>598986</v>
+        <v>598541</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>612259</v>
+        <v>612666</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9773851935051354</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9650078786306893</v>
+        <v>0.9642911191910081</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9863915659041136</v>
+        <v>0.9870470666056337</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>661</v>
@@ -5194,19 +5194,19 @@
         <v>695422</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>682062</v>
+        <v>679221</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>707934</v>
+        <v>707155</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9419941471724073</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9238976346553965</v>
+        <v>0.9200495118685721</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9589428676263213</v>
+        <v>0.9578875286406395</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1242</v>
@@ -5215,19 +5215,19 @@
         <v>1302090</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1285583</v>
+        <v>1287047</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1314497</v>
+        <v>1315927</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9581591498713481</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9460116313228975</v>
+        <v>0.9470894676073561</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9672885097263315</v>
+        <v>0.9683408968820709</v>
       </c>
     </row>
     <row r="18">
@@ -5332,19 +5332,19 @@
         <v>59596</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>44428</v>
+        <v>46959</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>75668</v>
+        <v>78271</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0550782311849349</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04105959789482243</v>
+        <v>0.04339915428722262</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06993190214294218</v>
+        <v>0.072337803408469</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>52</v>
@@ -5353,19 +5353,19 @@
         <v>59596</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>44364</v>
+        <v>45523</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>76371</v>
+        <v>76471</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04352711129570727</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03240226242093539</v>
+        <v>0.03324831246371934</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0557790763613991</v>
+        <v>0.05585212326924312</v>
       </c>
     </row>
     <row r="20">
@@ -5395,19 +5395,19 @@
         <v>1022429</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1006357</v>
+        <v>1003754</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1037597</v>
+        <v>1035066</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9449217688150651</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9300680978570579</v>
+        <v>0.927662196591531</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9589404021051776</v>
+        <v>0.9566008457127774</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1212</v>
@@ -5416,19 +5416,19 @@
         <v>1309574</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1292799</v>
+        <v>1292699</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1324806</v>
+        <v>1323647</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9564728887042927</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9442209236386009</v>
+        <v>0.944147876730757</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9675977375790648</v>
+        <v>0.9667516875362806</v>
       </c>
     </row>
     <row r="21">
@@ -5520,19 +5520,19 @@
         <v>45195</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>33152</v>
+        <v>32965</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>58809</v>
+        <v>61958</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01334877473399262</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009791812678398622</v>
+        <v>0.009736366230800592</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01736971506685314</v>
+        <v>0.0182997891764309</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>117</v>
@@ -5541,19 +5541,19 @@
         <v>132468</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>110148</v>
+        <v>109931</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>157694</v>
+        <v>157320</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03750931336937555</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03118939962429681</v>
+        <v>0.03112786095256602</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04465226161878812</v>
+        <v>0.04454633318931388</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>163</v>
@@ -5562,19 +5562,19 @@
         <v>177663</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>152591</v>
+        <v>151161</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>204186</v>
+        <v>204902</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02568379503450865</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02205921265388628</v>
+        <v>0.02185251771094691</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02951806025244647</v>
+        <v>0.02962159564038925</v>
       </c>
     </row>
     <row r="23">
@@ -5591,19 +5591,19 @@
         <v>3340527</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3326913</v>
+        <v>3323764</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3352570</v>
+        <v>3352757</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9866512252660073</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.982630284933147</v>
+        <v>0.9817002108235692</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9902081873216014</v>
+        <v>0.9902636337691993</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3209</v>
@@ -5612,19 +5612,19 @@
         <v>3399128</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3373902</v>
+        <v>3374276</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3421448</v>
+        <v>3421665</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9624906866306244</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9553477383812117</v>
+        <v>0.9554536668106861</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9688106003757032</v>
+        <v>0.968872139047434</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6387</v>
@@ -5633,19 +5633,19 @@
         <v>6739655</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6713132</v>
+        <v>6712416</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6764727</v>
+        <v>6766157</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9743162049654913</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9704819397475536</v>
+        <v>0.9703784043596109</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9779407873461139</v>
+        <v>0.9781474822890532</v>
       </c>
     </row>
     <row r="24">
@@ -5979,19 +5979,19 @@
         <v>4948</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1662</v>
+        <v>1847</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10575</v>
+        <v>10902</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008986580711260237</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003017881315509945</v>
+        <v>0.003353742620332159</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01920586731055277</v>
+        <v>0.01979904721193924</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -6000,19 +6000,19 @@
         <v>14553</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9069</v>
+        <v>9337</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24057</v>
+        <v>22607</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.02979662414918615</v>
+        <v>0.02979662414918614</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01856815418663847</v>
+        <v>0.01911781079158977</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04925584592603832</v>
+        <v>0.04628766803064033</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -6021,19 +6021,19 @@
         <v>19501</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12926</v>
+        <v>12856</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>28567</v>
+        <v>28388</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0187686467194084</v>
+        <v>0.01876864671940839</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01244083729985568</v>
+        <v>0.01237291533952095</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02749436493712891</v>
+        <v>0.0273214354557704</v>
       </c>
     </row>
     <row r="5">
@@ -6050,19 +6050,19 @@
         <v>545670</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>540043</v>
+        <v>539716</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>548956</v>
+        <v>548771</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9910134192887398</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9807941326894472</v>
+        <v>0.9802009527880604</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.99698211868449</v>
+        <v>0.9966462573796679</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>664</v>
@@ -6071,19 +6071,19 @@
         <v>473858</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>464354</v>
+        <v>465804</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>479342</v>
+        <v>479074</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9702033758508141</v>
+        <v>0.9702033758508137</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9507441540739618</v>
+        <v>0.9537123319693599</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9814318458133615</v>
+        <v>0.9808821892084102</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1212</v>
@@ -6092,19 +6092,19 @@
         <v>1019528</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1010462</v>
+        <v>1010641</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1026103</v>
+        <v>1026173</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9812313532805916</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9725056350628709</v>
+        <v>0.9726785645442295</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9875591627001441</v>
+        <v>0.987627084660479</v>
       </c>
     </row>
     <row r="6">
@@ -6196,19 +6196,19 @@
         <v>6439</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2622</v>
+        <v>2509</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14275</v>
+        <v>13017</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0133255299959359</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005427153105441261</v>
+        <v>0.005192359057690142</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02954131164999579</v>
+        <v>0.0269387308608479</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -6217,19 +6217,19 @@
         <v>16721</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10781</v>
+        <v>11371</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24054</v>
+        <v>24314</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03959832020979238</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02553142169020441</v>
+        <v>0.02692862633707339</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05696381281679478</v>
+        <v>0.05757909134267759</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>34</v>
@@ -6238,19 +6238,19 @@
         <v>23160</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15936</v>
+        <v>16132</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>32832</v>
+        <v>33619</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.02557780313654299</v>
+        <v>0.025577803136543</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01759947353664181</v>
+        <v>0.01781619856573416</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03625908409375847</v>
+        <v>0.03712860251072873</v>
       </c>
     </row>
     <row r="8">
@@ -6267,19 +6267,19 @@
         <v>476773</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>468937</v>
+        <v>470195</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>480590</v>
+        <v>480703</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9866744700040641</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9704586883500018</v>
+        <v>0.9730612691391518</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9945728468945586</v>
+        <v>0.9948076409423098</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>562</v>
@@ -6288,19 +6288,19 @@
         <v>405549</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>398216</v>
+        <v>397956</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>411489</v>
+        <v>410899</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9604016797902076</v>
+        <v>0.9604016797902075</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9430361871832051</v>
+        <v>0.9424209086573216</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9744685783097955</v>
+        <v>0.9730713736629266</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1036</v>
@@ -6309,19 +6309,19 @@
         <v>882322</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>872650</v>
+        <v>871863</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>889546</v>
+        <v>889350</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9744221968634569</v>
+        <v>0.974422196863457</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9637409159062414</v>
+        <v>0.9628713974892712</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9824005264633581</v>
+        <v>0.9821838014342658</v>
       </c>
     </row>
     <row r="9">
@@ -6413,19 +6413,19 @@
         <v>10909</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6007</v>
+        <v>5866</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19284</v>
+        <v>18864</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02313111200041302</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01273710800072089</v>
+        <v>0.01243733011172411</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04088940821905553</v>
+        <v>0.03999856523736192</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -6434,19 +6434,19 @@
         <v>15657</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9925</v>
+        <v>9932</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26519</v>
+        <v>25842</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08350603868144935</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05293466688434828</v>
+        <v>0.05297348570113047</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1414365239858739</v>
+        <v>0.1378276634083873</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>33</v>
@@ -6455,19 +6455,19 @@
         <v>26566</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17554</v>
+        <v>18171</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>37039</v>
+        <v>38839</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04030601756531197</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02663333669472221</v>
+        <v>0.02756865146242403</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05619507395444624</v>
+        <v>0.05892593525232321</v>
       </c>
     </row>
     <row r="11">
@@ -6484,19 +6484,19 @@
         <v>460703</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>452328</v>
+        <v>452748</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>465605</v>
+        <v>465746</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.976868887999587</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9591105917809447</v>
+        <v>0.960001434762638</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9872628919992792</v>
+        <v>0.9875626698882758</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>268</v>
@@ -6505,19 +6505,19 @@
         <v>171840</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>160978</v>
+        <v>161655</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>177572</v>
+        <v>177565</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9164939613185505</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8585634760141274</v>
+        <v>0.8621723365916129</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9470653331156517</v>
+        <v>0.9470265142988695</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>744</v>
@@ -6526,19 +6526,19 @@
         <v>632543</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>622070</v>
+        <v>620270</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>641555</v>
+        <v>640938</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9596939824346881</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9438049260455537</v>
+        <v>0.9410740647476767</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9733666633052777</v>
+        <v>0.972431348537576</v>
       </c>
     </row>
     <row r="12">
@@ -6630,19 +6630,19 @@
         <v>29111</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20692</v>
+        <v>20926</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40426</v>
+        <v>40679</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02573887255289339</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01829496391032236</v>
+        <v>0.01850177262120842</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03574232824268544</v>
+        <v>0.03596658107951652</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -6651,19 +6651,19 @@
         <v>29323</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21220</v>
+        <v>21411</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37846</v>
+        <v>38077</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.03408467443209405</v>
+        <v>0.03408467443209404</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02466658384881663</v>
+        <v>0.0248885349723525</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0439929340228253</v>
+        <v>0.04426041137336371</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>86</v>
@@ -6672,19 +6672,19 @@
         <v>58434</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>47733</v>
+        <v>46630</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>73038</v>
+        <v>70413</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02934440730685565</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02397046941571084</v>
+        <v>0.02341644589533914</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03667828856368188</v>
+        <v>0.035360235591258</v>
       </c>
     </row>
     <row r="14">
@@ -6701,19 +6701,19 @@
         <v>1101921</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1090606</v>
+        <v>1090353</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1110340</v>
+        <v>1110106</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9742611274471067</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9642576717573141</v>
+        <v>0.9640334189204826</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9817050360896776</v>
+        <v>0.9814982273787912</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1179</v>
@@ -6722,19 +6722,19 @@
         <v>830961</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>822438</v>
+        <v>822207</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>839064</v>
+        <v>838873</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.965915325567906</v>
+        <v>0.9659153255679059</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9560070659771744</v>
+        <v>0.9557395886266363</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9753334161511832</v>
+        <v>0.9751114650276475</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2259</v>
@@ -6743,19 +6743,19 @@
         <v>1932883</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1918279</v>
+        <v>1920904</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1943584</v>
+        <v>1944687</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9706555926931445</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9633217114363182</v>
+        <v>0.9646397644087411</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.976029530584289</v>
+        <v>0.9765835541046608</v>
       </c>
     </row>
     <row r="15">
@@ -6847,19 +6847,19 @@
         <v>12397</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7667</v>
+        <v>7517</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20754</v>
+        <v>19819</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02188474509784529</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01353467416882945</v>
+        <v>0.01326977020879457</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03663666571528128</v>
+        <v>0.0349858013020558</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>103</v>
@@ -6868,19 +6868,19 @@
         <v>59573</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>49271</v>
+        <v>48194</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>71461</v>
+        <v>70827</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07176375334785329</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05935393056545507</v>
+        <v>0.05805573943101774</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08608443118656182</v>
+        <v>0.08532016993724402</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>120</v>
@@ -6889,19 +6889,19 @@
         <v>71970</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>59823</v>
+        <v>60421</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>86433</v>
+        <v>85664</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.05153222951934304</v>
+        <v>0.05153222951934303</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04283451916314088</v>
+        <v>0.04326235148691509</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06188753756552545</v>
+        <v>0.06133690801712328</v>
       </c>
     </row>
     <row r="17">
@@ -6918,19 +6918,19 @@
         <v>554084</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>545727</v>
+        <v>546662</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>558814</v>
+        <v>558964</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9781152549021546</v>
+        <v>0.9781152549021548</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9633633342847185</v>
+        <v>0.9650141986979442</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9864653258311705</v>
+        <v>0.9867302297912055</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1186</v>
@@ -6939,19 +6939,19 @@
         <v>770554</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>758666</v>
+        <v>759300</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>780856</v>
+        <v>781933</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9282362466521468</v>
+        <v>0.9282362466521467</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9139155688134382</v>
+        <v>0.9146798300627558</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9406460694345449</v>
+        <v>0.941944260568982</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1714</v>
@@ -6960,19 +6960,19 @@
         <v>1324638</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1310175</v>
+        <v>1310944</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1336785</v>
+        <v>1336187</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9484677704806571</v>
+        <v>0.9484677704806568</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.938112462434474</v>
+        <v>0.9386630919828768</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9571654808368589</v>
+        <v>0.9567376485130851</v>
       </c>
     </row>
     <row r="18">
@@ -7077,19 +7077,19 @@
         <v>63216</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>52093</v>
+        <v>52196</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>76686</v>
+        <v>75589</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.07499045776552959</v>
+        <v>0.07499045776552957</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06179585806143652</v>
+        <v>0.06191772781587367</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09096884496402947</v>
+        <v>0.08966715408097498</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>106</v>
@@ -7098,19 +7098,19 @@
         <v>63216</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>51572</v>
+        <v>51988</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>77013</v>
+        <v>76624</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.05852177091263133</v>
+        <v>0.05852177091263132</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04774238963371021</v>
+        <v>0.04812712342909996</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07129386610500255</v>
+        <v>0.07093324179790496</v>
       </c>
     </row>
     <row r="20">
@@ -7140,19 +7140,19 @@
         <v>779777</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>766307</v>
+        <v>767404</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>790900</v>
+        <v>790797</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9250095422344705</v>
+        <v>0.9250095422344702</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9090311550359703</v>
+        <v>0.910332845919025</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9382041419385628</v>
+        <v>0.9380822721841263</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1163</v>
@@ -7161,19 +7161,19 @@
         <v>1017005</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1003208</v>
+        <v>1003597</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1028649</v>
+        <v>1028233</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9414782290873688</v>
+        <v>0.9414782290873686</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9287061338949975</v>
+        <v>0.9290667582020947</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9522576103662899</v>
+        <v>0.9518728765708998</v>
       </c>
     </row>
     <row r="21">
@@ -7265,19 +7265,19 @@
         <v>63805</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>50710</v>
+        <v>49808</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>80820</v>
+        <v>80531</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.01854695674378199</v>
+        <v>0.01854695674378198</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01474045021087946</v>
+        <v>0.01447836724100344</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02349296755730697</v>
+        <v>0.02340904089102059</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>328</v>
@@ -7286,19 +7286,19 @@
         <v>199043</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>175732</v>
+        <v>178240</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>222097</v>
+        <v>224400</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.05480897374534393</v>
+        <v>0.05480897374534392</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04838994108050372</v>
+        <v>0.04908056617972114</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06115718506371669</v>
+        <v>0.06179123156360535</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>407</v>
@@ -7307,19 +7307,19 @@
         <v>262848</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>238535</v>
+        <v>237728</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>291830</v>
+        <v>290965</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.03716868645771842</v>
+        <v>0.03716868645771843</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03373066902269011</v>
+        <v>0.03361655790282325</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04126692167704109</v>
+        <v>0.04114466432123443</v>
       </c>
     </row>
     <row r="23">
@@ -7336,19 +7336,19 @@
         <v>3376378</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3359363</v>
+        <v>3359652</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3389473</v>
+        <v>3390375</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9814530432562181</v>
+        <v>0.981453043256218</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9765070324426933</v>
+        <v>0.9765909591089794</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9852595497891204</v>
+        <v>0.9855216327589965</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4910</v>
@@ -7357,19 +7357,19 @@
         <v>3432539</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3409485</v>
+        <v>3407182</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3455850</v>
+        <v>3453342</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.945191026254656</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9388428149362832</v>
+        <v>0.9382087684363938</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9516100589194962</v>
+        <v>0.9509194338202787</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8128</v>
@@ -7378,19 +7378,19 @@
         <v>6808917</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6779935</v>
+        <v>6780800</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6833230</v>
+        <v>6834037</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9628313135422815</v>
+        <v>0.9628313135422816</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.958733078322959</v>
+        <v>0.9588553356787654</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.96626933097731</v>
+        <v>0.9663834420971766</v>
       </c>
     </row>
     <row r="24">
